--- a/Auddict/xlsx/Virtuoso Violin.xlsx
+++ b/Auddict/xlsx/Virtuoso Violin.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -1174,7 +1174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1187,7 +1187,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1244,8 +1244,12 @@
       <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>

--- a/Auddict/xlsx/Virtuoso Violin.xlsx
+++ b/Auddict/xlsx/Virtuoso Violin.xlsx
@@ -32,6 +32,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -48,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -561,13 +576,19 @@
   </si>
   <si>
     <t>Trill S</t>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Virtuoso Violin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -606,8 +627,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +688,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -719,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,13 +909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1174,7 +1214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,12 +1222,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1202,107 +1242,66 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -1310,13 +1309,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1324,12 +1323,8 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="12">
-        <v>120</v>
-      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1337,13 +1332,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1352,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="12">
         <v>120</v>
@@ -1364,13 +1359,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1379,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="12">
         <v>120</v>
@@ -1391,13 +1386,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1406,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -1418,22 +1413,22 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9" s="12">
         <v>120</v>
@@ -1445,22 +1440,22 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12">
         <v>120</v>
@@ -1472,13 +1467,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>16</v>
@@ -1487,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="12">
         <v>120</v>
@@ -1499,13 +1494,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="12">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>16</v>
@@ -1514,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="12">
         <v>120</v>
@@ -1526,22 +1521,22 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="12">
         <v>120</v>
@@ -1553,22 +1548,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="12">
         <v>120</v>
@@ -1580,13 +1575,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="12">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -1595,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12">
         <v>120</v>
@@ -1607,13 +1602,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="12">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -1622,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12">
         <v>120</v>
@@ -1634,13 +1629,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="12">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -1649,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="12">
         <v>120</v>
@@ -1661,13 +1656,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="12">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -1676,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="12">
         <v>120</v>
@@ -1688,13 +1683,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="12">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>12</v>
@@ -1703,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="12">
         <v>120</v>
@@ -1715,13 +1710,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B20" s="12">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
@@ -1730,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="12">
         <v>120</v>
@@ -1742,13 +1737,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="12">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>12</v>
@@ -1757,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="12">
         <v>120</v>
@@ -1769,13 +1764,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="12">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>12</v>
@@ -1784,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G22" s="12">
         <v>120</v>
@@ -1796,13 +1791,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="12">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>12</v>
@@ -1811,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="12">
         <v>120</v>
@@ -1823,13 +1818,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" s="12">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>12</v>
@@ -1838,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="12">
         <v>120</v>
@@ -1850,13 +1845,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="12">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>12</v>
@@ -1865,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G25" s="12">
         <v>120</v>
@@ -1877,13 +1872,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B26" s="12">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -1892,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" s="12">
         <v>120</v>
@@ -1904,13 +1899,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>12</v>
@@ -1919,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="12">
         <v>120</v>
@@ -1931,13 +1926,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>12</v>
@@ -1946,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="12">
         <v>120</v>
@@ -1958,13 +1953,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="12">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>12</v>
@@ -1973,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29" s="12">
         <v>120</v>
@@ -1985,13 +1980,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B30" s="12">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>12</v>
@@ -2000,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G30" s="12">
         <v>120</v>
@@ -2011,26 +2006,54 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="12">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="12">
+        <v>120</v>
+      </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="12">
+        <v>120</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -3297,26 +3320,55 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3335,7 +3387,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3344,7 +3396,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3353,7 +3405,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
